--- a/rom/Supply.xlsx
+++ b/rom/Supply.xlsx
@@ -6,36 +6,63 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Employees" r:id="rId3" sheetId="1"/>
+    <sheet name="Supplys" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
-    <t>ID</t>
+    <t>Type</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Post</t>
+    <t>Animal</t>
   </si>
   <si>
-    <t>Funcions</t>
+    <t>Quantity</t>
   </si>
   <si>
-    <t>Hacer el front de ssssssssssssssssssssssssssssssssssssssssssss</t>
+    <t>Specifications</t>
   </si>
   <si>
-    <t>Garcia Pareja</t>
+    <t>Hormonas</t>
   </si>
   <si>
-    <t xml:space="preserve">Jhon Alejandro </t>
+    <t>prueba 1</t>
   </si>
   <si>
-    <t>1000442407</t>
+    <t>León</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>Analgésicos</t>
+  </si>
+  <si>
+    <t>prueba1</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>hol</t>
+  </si>
+  <si>
+    <t>prueba2</t>
+  </si>
+  <si>
+    <t>Jirafa</t>
+  </si>
+  <si>
+    <t>hola</t>
   </si>
 </sst>
 </file>
@@ -80,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -99,47 +126,59 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/rom/Supply.xlsx
+++ b/rom/Supply.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Type</t>
   </si>
@@ -64,6 +64,27 @@
   <si>
     <t>hola</t>
   </si>
+  <si>
+    <t>Antibióticos</t>
+  </si>
+  <si>
+    <t>pangopastilla</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>viagra pro</t>
+  </si>
+  <si>
+    <t>camilo</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>dtrgh</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -132,53 +153,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/rom/Supply.xlsx
+++ b/rom/Supply.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Type</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>hola</t>
+  </si>
+  <si>
+    <t>Alimento</t>
+  </si>
+  <si>
+    <t>carne</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Alimento carinovoro</t>
   </si>
 </sst>
 </file>
@@ -107,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -181,6 +193,23 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/rom/Supply.xlsx
+++ b/rom/Supply.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Type</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>Alimento carinovoro</t>
+  </si>
+  <si>
+    <t>Antiparasitarios</t>
+  </si>
+  <si>
+    <t>Copia</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -195,19 +210,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
